--- a/archive/2026-03-01/2221.xlsx
+++ b/archive/2026-03-01/2221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.114\Data\3 HOURLY\2026\3-March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CC3D2-ABCD-4B0E-8B60-3CE37CA2417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC5BC7-2A6E-481F-9376-0EB62DB22DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="57">
   <si>
     <t>Station_ID</t>
   </si>
@@ -185,25 +185,19 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>2026-02-28 1730</t>
-  </si>
-  <si>
-    <t>2026-02-28 2030</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>2026-03-01 0230</t>
-  </si>
-  <si>
-    <t>Tr</t>
-  </si>
-  <si>
-    <t>23.0</t>
+    <t>2026-03-01 1730</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>2026-03-01 2030</t>
   </si>
   <si>
     <t>24.0</t>
+  </si>
+  <si>
+    <t>2026-03-01 2330</t>
   </si>
 </sst>
 </file>
@@ -382,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,10 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -819,21 +809,21 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="32">
-        <v>24.1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>91</v>
-      </c>
-      <c r="H2" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="31">
+        <v>25.3</v>
+      </c>
+      <c r="G2" s="31">
+        <v>81</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -845,21 +835,21 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="3">
-        <v>95</v>
-      </c>
-      <c r="H3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="31">
+        <v>23.5</v>
+      </c>
+      <c r="G3" s="31">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="30"/>
@@ -874,21 +864,21 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="32">
-        <v>21.7</v>
-      </c>
-      <c r="G4" s="3">
-        <v>94</v>
-      </c>
-      <c r="H4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="31">
+        <v>21.8</v>
+      </c>
+      <c r="G4" s="31">
+        <v>83</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="30"/>
@@ -903,22 +893,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="3">
-        <v>92</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="31">
+        <v>24.1</v>
+      </c>
+      <c r="G5" s="31">
+        <v>91</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -932,22 +922,22 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3">
-        <v>95</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="31">
+        <v>25.1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>81</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -961,22 +951,22 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="32">
-        <v>24.4</v>
-      </c>
-      <c r="G7" s="3">
-        <v>91</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="31">
+        <v>22.8</v>
+      </c>
+      <c r="G7" s="31">
+        <v>78</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -990,27 +980,27 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="32">
-        <v>18.2</v>
-      </c>
-      <c r="G8" s="3">
+        <v>56</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="31">
+        <v>17.8</v>
+      </c>
+      <c r="G8" s="31">
         <v>91</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="30"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43450</v>
       </c>
@@ -1018,28 +1008,28 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="3">
-        <v>94</v>
-      </c>
-      <c r="H9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="31">
+        <v>23.8</v>
+      </c>
+      <c r="G9" s="31">
+        <v>93</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43466</v>
       </c>
@@ -1047,22 +1037,22 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="32">
-        <v>26.2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>84</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="31">
+        <v>26</v>
+      </c>
+      <c r="G10" s="31">
+        <v>82</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
@@ -1076,21 +1066,21 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="32">
-        <v>25.8</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="D11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="31">
+        <v>26.4</v>
+      </c>
+      <c r="G11" s="31">
         <v>85</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="30"/>
@@ -1105,21 +1095,21 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="32">
+        <v>56</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="31">
         <v>10.1</v>
       </c>
-      <c r="G12" s="3">
-        <v>72</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="G12" s="31">
+        <v>71</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="30"/>
@@ -1134,22 +1124,22 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="32">
-        <v>22.2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>93</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>43</v>
+      <c r="D13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="31">
+        <v>23.8</v>
+      </c>
+      <c r="G13" s="31">
+        <v>91</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -1163,22 +1153,22 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3">
-        <v>92</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="31">
+        <v>26.4</v>
+      </c>
+      <c r="G14" s="31">
+        <v>82</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
@@ -1192,22 +1182,22 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="32">
-        <v>25.9</v>
-      </c>
-      <c r="G15" s="3">
-        <v>84</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="31">
+        <v>24.6</v>
+      </c>
+      <c r="G15" s="31">
+        <v>85</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -1221,22 +1211,22 @@
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="32">
+        <v>56</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="31">
         <v>23.5</v>
       </c>
-      <c r="G16" s="3">
-        <v>95</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>43</v>
+      <c r="G16" s="31">
+        <v>88</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -1244,27 +1234,27 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43404</v>
+        <v>43415</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="32">
-        <v>23.7</v>
-      </c>
-      <c r="G17" s="3">
-        <v>91</v>
-      </c>
-      <c r="H17" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="31">
+        <v>75</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="30"/>
@@ -1273,27 +1263,27 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43422</v>
+        <v>43479</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="32">
-        <v>26.2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>82</v>
-      </c>
-      <c r="H18" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="31">
+        <v>19.3</v>
+      </c>
+      <c r="G18" s="31">
+        <v>74</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="30"/>
@@ -1302,85 +1292,85 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43476</v>
+        <v>43404</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="32">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G19" s="3">
-        <v>78</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="31">
+        <v>29.2</v>
+      </c>
+      <c r="G19" s="31">
+        <v>50</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43475</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
+      <c r="A20" s="3">
+        <v>43410</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="32">
-        <v>26.9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>78</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="31">
+        <v>28.5</v>
+      </c>
+      <c r="G20" s="31">
+        <v>67</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>43410</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
+      <c r="A21" s="1">
+        <v>43422</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="32">
-        <v>28.5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>69</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="31">
+        <v>29.9</v>
+      </c>
+      <c r="G21" s="31">
+        <v>48</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="30"/>
@@ -1389,28 +1379,28 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43415</v>
+        <v>43476</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="32">
-        <v>30.4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>65</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>32</v>
+      <c r="D22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="31">
+        <v>20.6</v>
+      </c>
+      <c r="G22" s="31">
+        <v>61</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -1418,28 +1408,28 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43479</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>43475</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="32">
-        <v>25.6</v>
-      </c>
-      <c r="G23" s="3">
-        <v>55</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>32</v>
+      <c r="D23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="31">
+        <v>28.5</v>
+      </c>
+      <c r="G23" s="31">
+        <v>65</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -1455,20 +1445,20 @@
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="32">
-        <v>29.9</v>
-      </c>
-      <c r="G24" s="3">
-        <v>55</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>34</v>
+      <c r="D24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="31">
+        <v>29.5</v>
+      </c>
+      <c r="G24" s="31">
+        <v>41</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -1484,20 +1474,20 @@
       <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="32">
-        <v>29.5</v>
-      </c>
-      <c r="G25" s="3">
-        <v>67</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>34</v>
+      <c r="D25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="31">
+        <v>49</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -1574,12 +1564,12 @@
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33">
-        <v>6</v>
+      <c r="C2" s="32">
+        <v>2</v>
       </c>
       <c r="D2" s="12" t="str">
         <f t="shared" ref="D2:D25" si="1">VLOOKUP(C2,$E$1:$F$17,2,FALSE)</f>
-        <v>partlycloudy</v>
+        <v>fairday</v>
       </c>
       <c r="E2" s="7">
         <v>2</v>
@@ -1602,7 +1592,7 @@
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="str">
@@ -1630,7 +1620,7 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="str">
@@ -1658,7 +1648,7 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="str">
@@ -1686,7 +1676,7 @@
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="str">
@@ -1714,7 +1704,7 @@
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="str">
@@ -1742,7 +1732,7 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="str">
@@ -1770,12 +1760,12 @@
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="33">
-        <v>2</v>
+      <c r="C9" s="32">
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>partlycloudy</v>
       </c>
       <c r="E9" s="7">
         <v>9</v>
@@ -1798,7 +1788,7 @@
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <v>2</v>
       </c>
       <c r="D10" s="13" t="str">
@@ -1826,7 +1816,7 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>2</v>
       </c>
       <c r="D11" s="13" t="str">
@@ -1854,7 +1844,7 @@
       <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>2</v>
       </c>
       <c r="D12" s="13" t="str">
@@ -1882,7 +1872,7 @@
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>9</v>
       </c>
       <c r="D13" s="13" t="str">
@@ -1910,12 +1900,12 @@
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33">
-        <v>2</v>
+      <c r="C14" s="32">
+        <v>6</v>
       </c>
       <c r="D14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>partlycloudy</v>
       </c>
       <c r="E14" s="7">
         <v>14</v>
@@ -1938,12 +1928,12 @@
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="33">
-        <v>2</v>
+      <c r="C15" s="32">
+        <v>9</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>haze</v>
       </c>
       <c r="E15" s="7">
         <v>15</v>
@@ -1966,12 +1956,12 @@
       <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="33">
-        <v>6</v>
+      <c r="C16" s="32">
+        <v>2</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>partlycloudy</v>
+        <v>fairday</v>
       </c>
       <c r="E16" s="7">
         <v>16</v>
@@ -1994,7 +1984,7 @@
       <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>9</v>
       </c>
       <c r="D17" s="11" t="str">
@@ -2022,7 +2012,7 @@
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <v>2</v>
       </c>
       <c r="D18" s="11" t="str">
@@ -2037,7 +2027,7 @@
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <v>9</v>
       </c>
       <c r="D19" s="13" t="str">
@@ -2052,12 +2042,12 @@
       <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="33">
-        <v>2</v>
+      <c r="C20" s="32">
+        <v>9</v>
       </c>
       <c r="D20" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>haze</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2067,7 +2057,7 @@
       <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <v>2</v>
       </c>
       <c r="D21" s="13" t="str">
@@ -2082,12 +2072,12 @@
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="33">
-        <v>2</v>
+      <c r="C22" s="32">
+        <v>6</v>
       </c>
       <c r="D22" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>partlycloudy</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2097,7 +2087,7 @@
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="32">
         <v>2</v>
       </c>
       <c r="D23" s="13" t="str">
@@ -2112,12 +2102,12 @@
       <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="33">
-        <v>6</v>
+      <c r="C24" s="32">
+        <v>2</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>partlycloudy</v>
+        <v>fairday</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2127,7 +2117,7 @@
       <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <v>2</v>
       </c>
       <c r="D25" s="11" t="str">
